--- a/data.xlsx
+++ b/data.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="May-25" sheetId="2" r:id="rId2"/>
+    <sheet name="May-25A" sheetId="1" r:id="rId1"/>
+    <sheet name="May-25S" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -37,8 +37,8 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -402,162 +402,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>5/23/2025</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Husband salary</v>
+      </c>
+      <c r="D1">
+        <v>20000</v>
+      </c>
+      <c r="E1" t="str">
+        <v>income</v>
+      </c>
+      <c r="F1" t="str">
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>5/23/2025</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Food</v>
+      </c>
+      <c r="C2" t="str">
+        <v>fruits</v>
+      </c>
+      <c r="D2">
+        <v>-500</v>
+      </c>
+      <c r="E2" t="str">
+        <v>expense</v>
+      </c>
+      <c r="F2" t="str">
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>5/23/2025</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Fuel</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Petrol</v>
+      </c>
+      <c r="D3">
+        <v>-8999</v>
+      </c>
+      <c r="E3" t="str">
+        <v>expense</v>
+      </c>
+      <c r="F3" t="str">
+        <v>INR</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v/>
+        <v>5/23/2025</v>
       </c>
       <c r="B1" t="str">
-        <v/>
+        <v>Salary</v>
       </c>
       <c r="C1" t="str">
-        <v/>
-      </c>
-      <c r="D1" t="str">
-        <v/>
+        <v>Salary may</v>
+      </c>
+      <c r="D1">
+        <v>100000</v>
       </c>
       <c r="E1" t="str">
-        <v/>
+        <v>income</v>
       </c>
       <c r="F1" t="str">
-        <v/>
-      </c>
-      <c r="G1" t="str">
-        <v>5/21/2025</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Other</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Salary</v>
-      </c>
-      <c r="J1">
-        <v>10000</v>
-      </c>
-      <c r="K1" t="str">
-        <v>income</v>
-      </c>
-      <c r="L1" t="str">
         <v>INR</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>5/23/2025</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>Fuel</v>
       </c>
       <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
+        <v>Petrol</v>
+      </c>
+      <c r="D2">
+        <v>-100</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>expense</v>
       </c>
       <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v>5/21/2025</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Food</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Fruits</v>
-      </c>
-      <c r="J2">
-        <v>-300</v>
-      </c>
-      <c r="K2" t="str">
-        <v>expense</v>
-      </c>
-      <c r="L2" t="str">
-        <v>INR</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>5/21/2025</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Clothes</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Clothes</v>
-      </c>
-      <c r="D3">
-        <v>-900</v>
-      </c>
-      <c r="E3" t="str">
-        <v>expense</v>
-      </c>
-      <c r="F3" t="str">
-        <v>INR</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v>5/21/2025</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Clothes</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Clothes</v>
-      </c>
-      <c r="J4">
-        <v>-300</v>
-      </c>
-      <c r="K4" t="str">
-        <v>expense</v>
-      </c>
-      <c r="L4" t="str">
         <v>INR</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>